--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnc-Cntn1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnc-Cntn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,247 +528,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H2">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I2">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J2">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.101244526863411</v>
+        <v>0.1145166666666667</v>
       </c>
       <c r="N2">
-        <v>0.101244526863411</v>
+        <v>0.34355</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.5923587361059505</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.6855055141740312</v>
       </c>
       <c r="Q2">
-        <v>1.150127629067452</v>
+        <v>1.360302829916667</v>
       </c>
       <c r="R2">
-        <v>1.150127629067452</v>
+        <v>8.161816979500001</v>
       </c>
       <c r="S2">
-        <v>0.07484975927528713</v>
+        <v>0.04207925111095933</v>
       </c>
       <c r="T2">
-        <v>0.07484975927528713</v>
+        <v>0.03733695235238324</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>83.21132789367719</v>
+        <v>11.878645</v>
       </c>
       <c r="H3">
-        <v>83.21132789367719</v>
+        <v>23.75729</v>
       </c>
       <c r="I3">
-        <v>0.5482749187773768</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J3">
-        <v>0.5482749187773768</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.101244526863411</v>
+        <v>0.0788065</v>
       </c>
       <c r="N3">
-        <v>0.101244526863411</v>
+        <v>0.157613</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.4076412638940496</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.3144944858259688</v>
       </c>
       <c r="Q3">
-        <v>8.424691522271502</v>
+        <v>0.9361144371925001</v>
       </c>
       <c r="R3">
-        <v>8.424691522271502</v>
+        <v>3.74445774877</v>
       </c>
       <c r="S3">
-        <v>0.5482749187773768</v>
+        <v>0.02895751857961708</v>
       </c>
       <c r="T3">
-        <v>0.5482749187773768</v>
+        <v>0.01712935255746232</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.09032219525073</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H4">
-        <v>7.09032219525073</v>
+        <v>279.11272</v>
       </c>
       <c r="I4">
-        <v>0.04671774774071251</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J4">
-        <v>0.04671774774071251</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.101244526863411</v>
+        <v>0.1145166666666667</v>
       </c>
       <c r="N4">
-        <v>0.101244526863411</v>
+        <v>0.34355</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.5923587361059505</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.6855055141740312</v>
       </c>
       <c r="Q4">
-        <v>0.7178563159673017</v>
+        <v>10.65435277288889</v>
       </c>
       <c r="R4">
-        <v>0.7178563159673017</v>
+        <v>95.88917495599999</v>
       </c>
       <c r="S4">
-        <v>0.04671774774071251</v>
+        <v>0.3295789554320064</v>
       </c>
       <c r="T4">
-        <v>0.04671774774071251</v>
+        <v>0.4386534965723819</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>93.03757333333333</v>
+      </c>
+      <c r="H5">
+        <v>279.11272</v>
+      </c>
+      <c r="I5">
+        <v>0.5563840547006929</v>
+      </c>
+      <c r="J5">
+        <v>0.6398978381682568</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.0788065</v>
+      </c>
+      <c r="N5">
+        <v>0.157613</v>
+      </c>
+      <c r="O5">
+        <v>0.4076412638940496</v>
+      </c>
+      <c r="P5">
+        <v>0.3144944858259688</v>
+      </c>
+      <c r="Q5">
+        <v>7.331965522893333</v>
+      </c>
+      <c r="R5">
+        <v>43.99179313736</v>
+      </c>
+      <c r="S5">
+        <v>0.2268050992686865</v>
+      </c>
+      <c r="T5">
+        <v>0.2012443415958749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.02358366666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.07075100000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.0001410352357073828</v>
+      </c>
+      <c r="J6">
+        <v>0.0001622047606724708</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.1145166666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.34355</v>
+      </c>
+      <c r="O6">
+        <v>0.5923587361059505</v>
+      </c>
+      <c r="P6">
+        <v>0.6855055141740312</v>
+      </c>
+      <c r="Q6">
+        <v>0.002700722894444445</v>
+      </c>
+      <c r="R6">
+        <v>0.02430650605</v>
+      </c>
+      <c r="S6">
+        <v>8.354345397003008E-05</v>
+      </c>
+      <c r="T6">
+        <v>0.0001111922578662578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.02358366666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.07075100000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.0001410352357073828</v>
+      </c>
+      <c r="J7">
+        <v>0.0001622047606724708</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.0788065</v>
+      </c>
+      <c r="N7">
+        <v>0.157613</v>
+      </c>
+      <c r="O7">
+        <v>0.4076412638940496</v>
+      </c>
+      <c r="P7">
+        <v>0.3144944858259688</v>
+      </c>
+      <c r="Q7">
+        <v>0.001858546227166667</v>
+      </c>
+      <c r="R7">
+        <v>0.011151277363</v>
+      </c>
+      <c r="S7">
+        <v>5.749178173735272E-05</v>
+      </c>
+      <c r="T7">
+        <v>5.101250280621303E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.07955966666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.238679</v>
+      </c>
+      <c r="I8">
+        <v>0.0004757833673503189</v>
+      </c>
+      <c r="J8">
+        <v>0.0005471989098746966</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.1145166666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.34355</v>
+      </c>
+      <c r="O8">
+        <v>0.5923587361059505</v>
+      </c>
+      <c r="P8">
+        <v>0.6855055141740312</v>
+      </c>
+      <c r="Q8">
+        <v>0.009110907827777778</v>
+      </c>
+      <c r="R8">
+        <v>0.08199817045</v>
+      </c>
+      <c r="S8">
+        <v>0.000281834434143868</v>
+      </c>
+      <c r="T8">
+        <v>0.0003751078700691232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.07955966666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.238679</v>
+      </c>
+      <c r="I9">
+        <v>0.0004757833673503189</v>
+      </c>
+      <c r="J9">
+        <v>0.0005471989098746966</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.0788065</v>
+      </c>
+      <c r="N9">
+        <v>0.157613</v>
+      </c>
+      <c r="O9">
+        <v>0.4076412638940496</v>
+      </c>
+      <c r="P9">
+        <v>0.3144944858259688</v>
+      </c>
+      <c r="Q9">
+        <v>0.006269818871166667</v>
+      </c>
+      <c r="R9">
+        <v>0.037618913227</v>
+      </c>
+      <c r="S9">
+        <v>0.0001939489332064509</v>
+      </c>
+      <c r="T9">
+        <v>0.0001720910398055733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8.606016</v>
+      </c>
+      <c r="H10">
+        <v>25.818048</v>
+      </c>
+      <c r="I10">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J10">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1145166666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.34355</v>
+      </c>
+      <c r="O10">
+        <v>0.5923587361059505</v>
+      </c>
+      <c r="P10">
+        <v>0.6855055141740312</v>
+      </c>
+      <c r="Q10">
+        <v>0.9855322656000001</v>
+      </c>
+      <c r="R10">
+        <v>8.8697903904</v>
+      </c>
+      <c r="S10">
+        <v>0.03048619672773567</v>
+      </c>
+      <c r="T10">
+        <v>0.04057563922516177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>8.606016</v>
+      </c>
+      <c r="H11">
+        <v>25.818048</v>
+      </c>
+      <c r="I11">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J11">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.0788065</v>
+      </c>
+      <c r="N11">
+        <v>0.157613</v>
+      </c>
+      <c r="O11">
+        <v>0.4076412638940496</v>
+      </c>
+      <c r="P11">
+        <v>0.3144944858259688</v>
+      </c>
+      <c r="Q11">
+        <v>0.678209999904</v>
+      </c>
+      <c r="R11">
+        <v>4.069259999424</v>
+      </c>
+      <c r="S11">
+        <v>0.0209795703311684</v>
+      </c>
+      <c r="T11">
+        <v>0.01861518912878889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>50.1078003443079</v>
-      </c>
-      <c r="H5">
-        <v>50.1078003443079</v>
-      </c>
-      <c r="I5">
-        <v>0.3301575742066237</v>
-      </c>
-      <c r="J5">
-        <v>0.3301575742066237</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.101244526863411</v>
-      </c>
-      <c r="N5">
-        <v>0.101244526863411</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>5.073140538025716</v>
-      </c>
-      <c r="R5">
-        <v>5.073140538025716</v>
-      </c>
-      <c r="S5">
-        <v>0.3301575742066237</v>
-      </c>
-      <c r="T5">
-        <v>0.3301575742066237</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>53.592882</v>
+      </c>
+      <c r="H12">
+        <v>107.185764</v>
+      </c>
+      <c r="I12">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J12">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1145166666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.34355</v>
+      </c>
+      <c r="O12">
+        <v>0.5923587361059505</v>
+      </c>
+      <c r="P12">
+        <v>0.6855055141740312</v>
+      </c>
+      <c r="Q12">
+        <v>6.137278203699999</v>
+      </c>
+      <c r="R12">
+        <v>36.8236692222</v>
+      </c>
+      <c r="S12">
+        <v>0.1898489549471351</v>
+      </c>
+      <c r="T12">
+        <v>0.1684531258961689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>53.592882</v>
+      </c>
+      <c r="H13">
+        <v>107.185764</v>
+      </c>
+      <c r="I13">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J13">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.0788065</v>
+      </c>
+      <c r="N13">
+        <v>0.157613</v>
+      </c>
+      <c r="O13">
+        <v>0.4076412638940496</v>
+      </c>
+      <c r="P13">
+        <v>0.3144944858259688</v>
+      </c>
+      <c r="Q13">
+        <v>4.223467455333</v>
+      </c>
+      <c r="R13">
+        <v>16.893869821332</v>
+      </c>
+      <c r="S13">
+        <v>0.1306476349996339</v>
+      </c>
+      <c r="T13">
+        <v>0.07728249900123088</v>
       </c>
     </row>
   </sheetData>
